--- a/sample_error.xlsx
+++ b/sample_error.xlsx
@@ -21,40 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>emol1:</t>
-  </si>
-  <si>
-    <t>emol2:</t>
-  </si>
-  <si>
-    <t>reddit1:</t>
-  </si>
-  <si>
-    <t>reddit2:</t>
-  </si>
-  <si>
-    <t>youtube1:</t>
-  </si>
-  <si>
-    <t>youtube2:</t>
-  </si>
-  <si>
-    <t>twitter1:</t>
-  </si>
-  <si>
-    <t>twitter2:</t>
-  </si>
-  <si>
-    <t>telegram1:</t>
-  </si>
-  <si>
-    <t>telegram2:</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>Error muestral normal</t>
+  </si>
+  <si>
+    <t>emol1</t>
+  </si>
+  <si>
+    <t>emol2</t>
+  </si>
+  <si>
+    <t>reddit1</t>
+  </si>
+  <si>
+    <t>reddit2</t>
+  </si>
+  <si>
+    <t>youtube1</t>
+  </si>
+  <si>
+    <t>youtube2</t>
+  </si>
+  <si>
+    <t>twitter1</t>
+  </si>
+  <si>
+    <t>twitter2</t>
+  </si>
+  <si>
+    <t>telegram1</t>
+  </si>
+  <si>
+    <t>telegram2</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,99 +397,99 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4.5497662288356097E-2</v>
+        <v>4.5564960194480197E-2</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1054559617565501E-2</v>
+        <v>1.11404149150347E-2</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>5.10676098503225E-2</v>
+        <v>6.8971817294895404E-2</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>9.9112132931233506E-3</v>
+        <v>1.33415628467068E-2</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>3.1265713122889102E-2</v>
+        <v>2.53774424337284E-2</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>9.1162610190435502E-3</v>
+        <v>7.3378617463703104E-3</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>3.3771955442422501E-2</v>
+        <v>2.7595408663113701E-2</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0151983395529E-2</v>
+        <v>8.2565737319370697E-3</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1.7591561571594801E-2</v>
+        <v>1.79503266517342E-2</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>4.9815660641106298E-3</v>
+        <v>5.0149953445393202E-3</v>
       </c>
       <c r="C11" s="1"/>
     </row>
